--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>29.39713948144771</v>
+        <v>29.25746529139794</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1428605185522898</v>
+        <v>-0.2825347086020606</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02040912776102913</v>
+        <v>0.07982586156485132</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>32.18493638394479</v>
+        <v>32.13796944217449</v>
       </c>
       <c r="D3" t="n">
-        <v>2.374936383944796</v>
+        <v>2.327969442174489</v>
       </c>
       <c r="E3" t="n">
-        <v>5.640322827784783</v>
+        <v>5.419441723698199</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.21</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5106691127074</v>
+        <v>31.44062888395815</v>
       </c>
       <c r="D4" t="n">
-        <v>1.300669112707403</v>
+        <v>1.230628883958147</v>
       </c>
       <c r="E4" t="n">
-        <v>1.691740140751064</v>
+        <v>1.514447450032074</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.48</v>
       </c>
       <c r="C5" t="n">
-        <v>32.82639679874654</v>
+        <v>32.79021211076812</v>
       </c>
       <c r="D5" t="n">
-        <v>2.346396798746543</v>
+        <v>2.310212110768123</v>
       </c>
       <c r="E5" t="n">
-        <v>5.505577937168026</v>
+        <v>5.337079996739709</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.95</v>
       </c>
       <c r="C6" t="n">
-        <v>33.84385729758144</v>
+        <v>33.82163137286464</v>
       </c>
       <c r="D6" t="n">
-        <v>2.893857297581444</v>
+        <v>2.871631372864638</v>
       </c>
       <c r="E6" t="n">
-        <v>8.374410058765381</v>
+        <v>8.246266741620444</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>31.38</v>
       </c>
       <c r="C7" t="n">
-        <v>34.07107736068583</v>
+        <v>34.04855711330606</v>
       </c>
       <c r="D7" t="n">
-        <v>2.691077360685828</v>
+        <v>2.668557113306061</v>
       </c>
       <c r="E7" t="n">
-        <v>7.241897361195801</v>
+        <v>7.121197066976379</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>32.28</v>
       </c>
       <c r="C8" t="n">
-        <v>34.27358817860048</v>
+        <v>34.23092258421505</v>
       </c>
       <c r="D8" t="n">
-        <v>1.993588178600483</v>
+        <v>1.95092258421505</v>
       </c>
       <c r="E8" t="n">
-        <v>3.97439382585559</v>
+        <v>3.806098929600329</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>33.1</v>
       </c>
       <c r="C9" t="n">
-        <v>34.66040006480483</v>
+        <v>34.60839151599354</v>
       </c>
       <c r="D9" t="n">
-        <v>1.560400064804831</v>
+        <v>1.508391515993537</v>
       </c>
       <c r="E9" t="n">
-        <v>2.434848362242922</v>
+        <v>2.275244965521281</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>34.4</v>
       </c>
       <c r="C10" t="n">
-        <v>36.27487420505324</v>
+        <v>36.22403359283001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.874874205053239</v>
+        <v>1.824033592830013</v>
       </c>
       <c r="E10" t="n">
-        <v>3.515153284774013</v>
+        <v>3.327098547772364</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>36.3</v>
       </c>
       <c r="C11" t="n">
-        <v>37.82061078681597</v>
+        <v>37.75303821810937</v>
       </c>
       <c r="D11" t="n">
-        <v>1.520610786815972</v>
+        <v>1.453038218109377</v>
       </c>
       <c r="E11" t="n">
-        <v>2.312257164981089</v>
+        <v>2.111320063286473</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>38.5</v>
       </c>
       <c r="C12" t="n">
-        <v>41.05285208167332</v>
+        <v>41.00435280610192</v>
       </c>
       <c r="D12" t="n">
-        <v>2.552852081673322</v>
+        <v>2.50435280610192</v>
       </c>
       <c r="E12" t="n">
-        <v>6.517053750903814</v>
+        <v>6.271782977430562</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>40.1</v>
       </c>
       <c r="C13" t="n">
-        <v>43.17257910463829</v>
+        <v>43.15417934325163</v>
       </c>
       <c r="D13" t="n">
-        <v>3.072579104638287</v>
+        <v>3.054179343251633</v>
       </c>
       <c r="E13" t="n">
-        <v>9.440742354259815</v>
+        <v>9.328011460744975</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>41.5</v>
       </c>
       <c r="C14" t="n">
-        <v>44.10271590485718</v>
+        <v>44.07414063514906</v>
       </c>
       <c r="D14" t="n">
-        <v>2.602715904857185</v>
+        <v>2.574140635149057</v>
       </c>
       <c r="E14" t="n">
-        <v>6.774130081396553</v>
+        <v>6.626200009525589</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>43.7</v>
       </c>
       <c r="C15" t="n">
-        <v>46.47368444037031</v>
+        <v>46.4270658281724</v>
       </c>
       <c r="D15" t="n">
-        <v>2.773684440370303</v>
+        <v>2.7270658281724</v>
       </c>
       <c r="E15" t="n">
-        <v>7.693325374752321</v>
+        <v>7.436888031185616</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>48.1</v>
       </c>
       <c r="C16" t="n">
-        <v>52.51158367972248</v>
+        <v>52.28985489800367</v>
       </c>
       <c r="D16" t="n">
-        <v>4.411583679722483</v>
+        <v>4.189854898003667</v>
       </c>
       <c r="E16" t="n">
-        <v>19.46207056319376</v>
+        <v>17.55488406632531</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2276484003789</v>
+        <v>56.18469035108158</v>
       </c>
       <c r="D17" t="n">
-        <v>3.227648400378897</v>
+        <v>3.184690351081585</v>
       </c>
       <c r="E17" t="n">
-        <v>10.41771419646845</v>
+        <v>10.14225263227215</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>56.1</v>
       </c>
       <c r="C18" t="n">
-        <v>56.19722140999413</v>
+        <v>56.07552529041646</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09722140999412687</v>
+        <v>-0.02447470958353648</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009452002561246113</v>
+        <v>0.0005990114091984525</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>62.27819676227818</v>
+        <v>62.31492145801695</v>
       </c>
       <c r="D19" t="n">
-        <v>2.278196762278185</v>
+        <v>2.314921458016954</v>
       </c>
       <c r="E19" t="n">
-        <v>5.190180487654804</v>
+        <v>5.358861356787341</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>63.9</v>
       </c>
       <c r="C20" t="n">
-        <v>61.06140986113633</v>
+        <v>61.02362151988124</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.838590138863673</v>
+        <v>-2.87637848011876</v>
       </c>
       <c r="E20" t="n">
-        <v>8.057593976454083</v>
+        <v>8.273553160890307</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>72.60684133435807</v>
+        <v>72.75332995954209</v>
       </c>
       <c r="D21" t="n">
-        <v>2.006841334358072</v>
+        <v>2.153329959542091</v>
       </c>
       <c r="E21" t="n">
-        <v>4.027412141288085</v>
+        <v>4.636829914661545</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>38.59828264979544</v>
+        <v>37.66453221523438</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>118.3006850202126</v>
+        <v>114.8678839680447</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>5.915034251010632</v>
+        <v>5.743394198402235</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,370 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>29.54</v>
+        <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>29.25746529139794</v>
+        <v>29.04278696039093</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2825347086020606</v>
+        <v>-0.1072130396090643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07982586156485132</v>
+        <v>0.01149463586221478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>29.81</v>
+        <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>32.13796944217449</v>
+        <v>31.25646693997689</v>
       </c>
       <c r="D3" t="n">
-        <v>2.327969442174489</v>
+        <v>1.906466939976887</v>
       </c>
       <c r="E3" t="n">
-        <v>5.419441723698199</v>
+        <v>3.634616193224837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>30.21</v>
+        <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>31.44062888395815</v>
+        <v>31.36357805352177</v>
       </c>
       <c r="D4" t="n">
-        <v>1.230628883958147</v>
+        <v>1.99357805352177</v>
       </c>
       <c r="E4" t="n">
-        <v>1.514447450032074</v>
+        <v>3.974353455483647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>30.48</v>
+        <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>32.79021211076812</v>
+        <v>31.19814654883925</v>
       </c>
       <c r="D5" t="n">
-        <v>2.310212110768123</v>
+        <v>1.658146548839255</v>
       </c>
       <c r="E5" t="n">
-        <v>5.337079996739709</v>
+        <v>2.749449977427533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>30.95</v>
+        <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>33.82163137286464</v>
+        <v>30.42557353187384</v>
       </c>
       <c r="D6" t="n">
-        <v>2.871631372864638</v>
+        <v>0.8755735318738438</v>
       </c>
       <c r="E6" t="n">
-        <v>8.246266741620444</v>
+        <v>0.7666290097180369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>31.38</v>
+        <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>34.04855711330606</v>
+        <v>32.20735625269889</v>
       </c>
       <c r="D7" t="n">
-        <v>2.668557113306061</v>
+        <v>2.457356252698894</v>
       </c>
       <c r="E7" t="n">
-        <v>7.121197066976379</v>
+        <v>6.038599752678349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>32.28</v>
+        <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>34.23092258421505</v>
+        <v>32.74542646443384</v>
       </c>
       <c r="D8" t="n">
-        <v>1.95092258421505</v>
+        <v>2.905426464433841</v>
       </c>
       <c r="E8" t="n">
-        <v>3.806098929600329</v>
+        <v>8.44150294023253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>33.1</v>
+        <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>34.60839151599354</v>
+        <v>32.27366571421303</v>
       </c>
       <c r="D9" t="n">
-        <v>1.508391515993537</v>
+        <v>2.463665714213032</v>
       </c>
       <c r="E9" t="n">
-        <v>2.275244965521281</v>
+        <v>6.069648751388812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4</v>
+        <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>36.22403359283001</v>
+        <v>36.07735488345689</v>
       </c>
       <c r="D10" t="n">
-        <v>1.824033592830013</v>
+        <v>6.15735488345689</v>
       </c>
       <c r="E10" t="n">
-        <v>3.327098547772364</v>
+        <v>37.91301916083041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>36.3</v>
+        <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>37.75303821810937</v>
+        <v>33.53938099859094</v>
       </c>
       <c r="D11" t="n">
-        <v>1.453038218109377</v>
+        <v>3.559380998590935</v>
       </c>
       <c r="E11" t="n">
-        <v>2.111320063286473</v>
+        <v>12.6691930931302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>38.5</v>
+        <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>41.00435280610192</v>
+        <v>31.04926117409461</v>
       </c>
       <c r="D12" t="n">
-        <v>2.50435280610192</v>
+        <v>1.009261174094611</v>
       </c>
       <c r="E12" t="n">
-        <v>6.271782977430562</v>
+        <v>1.018608117534833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>40.1</v>
+        <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>43.15417934325163</v>
+        <v>30.41922620665293</v>
       </c>
       <c r="D13" t="n">
-        <v>3.054179343251633</v>
+        <v>0.2092262066529287</v>
       </c>
       <c r="E13" t="n">
-        <v>9.328011460744975</v>
+        <v>0.04377560555037402</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5</v>
+        <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>44.07414063514906</v>
+        <v>27.77011520999897</v>
       </c>
       <c r="D14" t="n">
-        <v>2.574140635149057</v>
+        <v>-2.449884790001029</v>
       </c>
       <c r="E14" t="n">
-        <v>6.626200009525589</v>
+        <v>6.001935484278386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>43.7</v>
+        <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4270658281724</v>
+        <v>29.63091516892424</v>
       </c>
       <c r="D15" t="n">
-        <v>2.7270658281724</v>
+        <v>-0.7490848310757592</v>
       </c>
       <c r="E15" t="n">
-        <v>7.436888031185616</v>
+        <v>0.5611280841477987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>48.1</v>
+        <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>52.28985489800367</v>
+        <v>27.36848407925731</v>
       </c>
       <c r="D16" t="n">
-        <v>4.189854898003667</v>
+        <v>-3.071515920742687</v>
       </c>
       <c r="E16" t="n">
-        <v>17.55488406632531</v>
+        <v>9.434210051375798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>53</v>
+        <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>56.18469035108158</v>
+        <v>28.8419341546268</v>
       </c>
       <c r="D17" t="n">
-        <v>3.184690351081585</v>
+        <v>-1.638065845373202</v>
       </c>
       <c r="E17" t="n">
-        <v>10.14225263227215</v>
+        <v>2.683259713778222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>56.1</v>
+        <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>56.07552529041646</v>
+        <v>32.82900067140586</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02447470958353648</v>
+        <v>2.139000671405864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005990114091984525</v>
+        <v>4.575323872274735</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>62.31492145801695</v>
+        <v>27.64726857947183</v>
       </c>
       <c r="D19" t="n">
-        <v>2.314921458016954</v>
+        <v>-3.102731420528166</v>
       </c>
       <c r="E19" t="n">
-        <v>5.358861356787341</v>
+        <v>9.626942267932728</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>63.9</v>
+        <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>61.02362151988124</v>
+        <v>31.99633667352985</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.87637848011876</v>
+        <v>1.056336673529845</v>
       </c>
       <c r="E20" t="n">
-        <v>8.273553160890307</v>
+        <v>1.115847167844099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28.45210737341056</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.497892626589437</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.239467573969875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.92684907837629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.093150921623714</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.567582623941631</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28.141044102858</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.978955897141997</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.87417823711708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.26062081086322</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.019379189136778</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.039133931245155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29.81529193196361</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.564708068036392</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.448311338178179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30.13715360661637</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.442846393383633</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.081805714900157</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.64822544244532</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.001774557554675</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.007101379273217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27.63409921784297</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.245900782157026</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.02767345192165</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.56351445704563</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.716485542954366</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.379293705080078</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.28029048292084</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.169709517079163</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17.38647745682054</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.18428338859172</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.665716611408286</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.76891149797121</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31.67220385003579</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.227796149964213</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.507483385866945</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23.37325099637889</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-9.726749003621109</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.60964617944423</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22.93304910503683</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-10.46695089496317</v>
+      </c>
+      <c r="E34" t="n">
+        <v>109.5570610375703</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23.36176108023897</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-10.33823891976103</v>
+      </c>
+      <c r="E35" t="n">
+        <v>106.8791839620618</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26.35244438703447</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7.747555612965535</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60.02461797599376</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>26.23281706193831</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-8.167182938061686</v>
+      </c>
+      <c r="E37" t="n">
+        <v>66.7028771437659</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>27.5837068914454</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-7.316293108554603</v>
+      </c>
+      <c r="E38" t="n">
+        <v>53.52814485028358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.2677879822241</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-9.032212017775898</v>
+      </c>
+      <c r="E39" t="n">
+        <v>81.58085393405536</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29.26121629174983</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-6.43878370825017</v>
+      </c>
+      <c r="E40" t="n">
+        <v>41.45793564162781</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30.20329877641694</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-6.096701223583061</v>
+      </c>
+      <c r="E41" t="n">
+        <v>37.16976580963919</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>32.57591912491879</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-4.224080875081206</v>
+      </c>
+      <c r="E42" t="n">
+        <v>17.84285923922681</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>35.65218034178142</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.64781965821858</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.715309626011599</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>39.12243841076245</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.22243841076245</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.494355668107425</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>37.58412611723882</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.9158738827611828</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8388249691240447</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40.60159158016594</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.701591580165946</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.895413905691641</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.67953785896027</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2795378589602677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.07814141459209054</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>39.86188215818763</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.03811784181236533</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001452969864432506</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.30442113549677</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-5.795578864503234</v>
+      </c>
+      <c r="E49" t="n">
+        <v>33.5887343746766</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>41.24439726301302</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.644397263013019</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.41524783257867</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B21" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>72.75332995954209</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.153329959542091</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.636829914661545</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B51" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>38.42593119287589</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-2.474068807124112</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.121016462384528</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>37.66453221523438</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>114.8678839680447</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-100.9302802352063</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>935.158400627679</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>5.743394198402235</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>18.70316801255358</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>29.04278696039093</v>
+        <v>28.45769926551294</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1072130396090643</v>
+        <v>-0.6923007344870626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01149463586221478</v>
+        <v>0.4792803069713264</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>31.25646693997689</v>
+        <v>29.07298104513369</v>
       </c>
       <c r="D3" t="n">
-        <v>1.906466939976887</v>
+        <v>-0.2770189548663069</v>
       </c>
       <c r="E3" t="n">
-        <v>3.634616193224837</v>
+        <v>0.07673950135522098</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>31.36357805352177</v>
+        <v>28.98648354733675</v>
       </c>
       <c r="D4" t="n">
-        <v>1.99357805352177</v>
+        <v>-0.3835164526632475</v>
       </c>
       <c r="E4" t="n">
-        <v>3.974353455483647</v>
+        <v>0.147084869463401</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>31.19814654883925</v>
+        <v>28.90920431921203</v>
       </c>
       <c r="D5" t="n">
-        <v>1.658146548839255</v>
+        <v>-0.6307956807879727</v>
       </c>
       <c r="E5" t="n">
-        <v>2.749449977427533</v>
+        <v>0.3979031909007619</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>30.42557353187384</v>
+        <v>30.13803044742587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8755735318738438</v>
+        <v>0.5880304474258686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7666290097180369</v>
+        <v>0.3457798070998673</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>32.20735625269889</v>
+        <v>29.81685577167374</v>
       </c>
       <c r="D7" t="n">
-        <v>2.457356252698894</v>
+        <v>0.0668557716737368</v>
       </c>
       <c r="E7" t="n">
-        <v>6.038599752678349</v>
+        <v>0.004469694206090827</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>32.74542646443384</v>
+        <v>30.75050629839859</v>
       </c>
       <c r="D8" t="n">
-        <v>2.905426464433841</v>
+        <v>0.9105062983985874</v>
       </c>
       <c r="E8" t="n">
-        <v>8.44150294023253</v>
+        <v>0.8290217194234976</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>32.27366571421303</v>
+        <v>30.61713050576026</v>
       </c>
       <c r="D9" t="n">
-        <v>2.463665714213032</v>
+        <v>0.8071305057602594</v>
       </c>
       <c r="E9" t="n">
-        <v>6.069648751388812</v>
+        <v>0.6514596533288121</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>36.07735488345689</v>
+        <v>30.42709721190894</v>
       </c>
       <c r="D10" t="n">
-        <v>6.15735488345689</v>
+        <v>0.5070972119089348</v>
       </c>
       <c r="E10" t="n">
-        <v>37.91301916083041</v>
+        <v>0.2571475823258151</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>33.53938099859094</v>
+        <v>29.69666364499381</v>
       </c>
       <c r="D11" t="n">
-        <v>3.559380998590935</v>
+        <v>-0.2833363550061918</v>
       </c>
       <c r="E11" t="n">
-        <v>12.6691930931302</v>
+        <v>0.08027949006819475</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>31.04926117409461</v>
+        <v>29.97555144361638</v>
       </c>
       <c r="D12" t="n">
-        <v>1.009261174094611</v>
+        <v>-0.06444855638362412</v>
       </c>
       <c r="E12" t="n">
-        <v>1.018608117534833</v>
+        <v>0.004153616419933177</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>30.41922620665293</v>
+        <v>29.44071962030593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2092262066529287</v>
+        <v>-0.7692803796940737</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04377560555037402</v>
+        <v>0.5917923025822582</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>27.77011520999897</v>
+        <v>29.86526551103273</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.449884790001029</v>
+        <v>-0.3547344889672672</v>
       </c>
       <c r="E14" t="n">
-        <v>6.001935484278386</v>
+        <v>0.1258365576628682</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>29.63091516892424</v>
+        <v>29.62894127289632</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7490848310757592</v>
+        <v>-0.7510587271036755</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5611280841477987</v>
+        <v>0.5640892115585933</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>27.36848407925731</v>
+        <v>30.36104736073625</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.071515920742687</v>
+        <v>-0.07895263926375407</v>
       </c>
       <c r="E16" t="n">
-        <v>9.434210051375798</v>
+        <v>0.00623351924671248</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>28.8419341546268</v>
+        <v>30.39606725906519</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.638065845373202</v>
+        <v>-0.0839327409348094</v>
       </c>
       <c r="E17" t="n">
-        <v>2.683259713778222</v>
+        <v>0.00704470500082983</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>32.82900067140586</v>
+        <v>30.69627960163829</v>
       </c>
       <c r="D18" t="n">
-        <v>2.139000671405864</v>
+        <v>0.006279601638286891</v>
       </c>
       <c r="E18" t="n">
-        <v>4.575323872274735</v>
+        <v>3.943339673557541e-05</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>27.64726857947183</v>
+        <v>30.25991957428342</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.102731420528166</v>
+        <v>-0.4900804257165845</v>
       </c>
       <c r="E19" t="n">
-        <v>9.626942267932728</v>
+        <v>0.2401788236705487</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>31.99633667352985</v>
+        <v>30.71466799285631</v>
       </c>
       <c r="D20" t="n">
-        <v>1.056336673529845</v>
+        <v>-0.2253320071436882</v>
       </c>
       <c r="E20" t="n">
-        <v>1.115847167844099</v>
+        <v>0.05077451344340314</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>28.45210737341056</v>
+        <v>31.03730775975343</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.497892626589437</v>
+        <v>0.08730775975342908</v>
       </c>
       <c r="E21" t="n">
-        <v>6.239467573969875</v>
+        <v>0.007622644913162491</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>27.92684907837629</v>
+        <v>31.70770545872092</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.093150921623714</v>
+        <v>0.6877054587209166</v>
       </c>
       <c r="E22" t="n">
-        <v>9.567582623941631</v>
+        <v>0.4729387979545463</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>28.141044102858</v>
+        <v>32.13337620006495</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.978955897141997</v>
+        <v>1.01337620006495</v>
       </c>
       <c r="E23" t="n">
-        <v>8.87417823711708</v>
+        <v>1.026931322858079</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>30.26062081086322</v>
+        <v>32.29976812191642</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.019379189136778</v>
+        <v>1.019768121916421</v>
       </c>
       <c r="E24" t="n">
-        <v>1.039133931245155</v>
+        <v>1.039927022476944</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>29.81529193196361</v>
+        <v>32.13093560450127</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.564708068036392</v>
+        <v>0.7509356045012758</v>
       </c>
       <c r="E25" t="n">
-        <v>2.448311338178179</v>
+        <v>0.5639042821076966</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>30.13715360661637</v>
+        <v>32.54529895307395</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.442846393383633</v>
+        <v>0.9652989530739546</v>
       </c>
       <c r="E26" t="n">
-        <v>2.081805714900157</v>
+        <v>0.9318020688056728</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>29.64822544244532</v>
+        <v>32.33996152515173</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.001774557554675</v>
+        <v>0.6899615251517304</v>
       </c>
       <c r="E27" t="n">
-        <v>4.007101379273217</v>
+        <v>0.4760469061897019</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>27.63409921784297</v>
+        <v>32.99971959255687</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.245900782157026</v>
+        <v>1.119719592556873</v>
       </c>
       <c r="E28" t="n">
-        <v>18.02767345192165</v>
+        <v>1.253771965955729</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>29.56351445704563</v>
+        <v>32.71683441576418</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.716485542954366</v>
+        <v>0.4368344157641815</v>
       </c>
       <c r="E29" t="n">
-        <v>7.379293705080078</v>
+        <v>0.1908243067960338</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>28.28029048292084</v>
+        <v>32.81211361359365</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.169709517079163</v>
+        <v>0.3621136135936425</v>
       </c>
       <c r="E30" t="n">
-        <v>17.38647745682054</v>
+        <v>0.1311262691498458</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>28.18428338859172</v>
+        <v>33.00473111840309</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.665716611408286</v>
+        <v>0.1547311184030917</v>
       </c>
       <c r="E31" t="n">
-        <v>21.76891149797121</v>
+        <v>0.02394171900227159</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>31.67220385003579</v>
+        <v>33.10571218941026</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.227796149964213</v>
+        <v>0.2057121894102636</v>
       </c>
       <c r="E32" t="n">
-        <v>1.507483385866945</v>
+        <v>0.04231750487196417</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>23.37325099637889</v>
+        <v>33.0779625320107</v>
       </c>
       <c r="D33" t="n">
-        <v>-9.726749003621109</v>
+        <v>-0.02203746798929984</v>
       </c>
       <c r="E33" t="n">
-        <v>94.60964617944423</v>
+        <v>0.0004856499953794152</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>22.93304910503683</v>
+        <v>34.06090076721547</v>
       </c>
       <c r="D34" t="n">
-        <v>-10.46695089496317</v>
+        <v>0.6609007672154732</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5570610375703</v>
+        <v>0.4367898241060011</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>23.36176108023897</v>
+        <v>33.89679463998552</v>
       </c>
       <c r="D35" t="n">
-        <v>-10.33823891976103</v>
+        <v>0.1967946399855123</v>
       </c>
       <c r="E35" t="n">
-        <v>106.8791839620618</v>
+        <v>0.03872813032702738</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>26.35244438703447</v>
+        <v>33.98758366440517</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.747555612965535</v>
+        <v>-0.1124163355948298</v>
       </c>
       <c r="E36" t="n">
-        <v>60.02461797599376</v>
+        <v>0.01263743250856939</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>26.23281706193831</v>
+        <v>34.27937838195894</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.167182938061686</v>
+        <v>-0.1206216180410564</v>
       </c>
       <c r="E37" t="n">
-        <v>66.7028771437659</v>
+        <v>0.01454957473884251</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>27.5837068914454</v>
+        <v>34.74813211395009</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.316293108554603</v>
+        <v>-0.1518678860499065</v>
       </c>
       <c r="E38" t="n">
-        <v>53.52814485028358</v>
+        <v>0.0230638548132674</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>26.2677879822241</v>
+        <v>35.88951697187024</v>
       </c>
       <c r="D39" t="n">
-        <v>-9.032212017775898</v>
+        <v>0.5895169718702462</v>
       </c>
       <c r="E39" t="n">
-        <v>81.58085393405536</v>
+        <v>0.3475302601230646</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>29.26121629174983</v>
+        <v>36.26926468172613</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.43878370825017</v>
+        <v>0.5692646817261249</v>
       </c>
       <c r="E40" t="n">
-        <v>41.45793564162781</v>
+        <v>0.3240622778607463</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>30.20329877641694</v>
+        <v>36.20843056628006</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.096701223583061</v>
+        <v>-0.09156943371993265</v>
       </c>
       <c r="E41" t="n">
-        <v>37.16976580963919</v>
+        <v>0.008384961191789138</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>32.57591912491879</v>
+        <v>36.69659092684201</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.224080875081206</v>
+        <v>-0.1034090731579838</v>
       </c>
       <c r="E42" t="n">
-        <v>17.84285923922681</v>
+        <v>0.01069343641139324</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>35.65218034178142</v>
+        <v>36.68193200156335</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.64781965821858</v>
+        <v>-0.6180679984366506</v>
       </c>
       <c r="E43" t="n">
-        <v>2.715309626011599</v>
+        <v>0.3820080506914875</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.12243841076245</v>
+        <v>37.74507957354775</v>
       </c>
       <c r="D44" t="n">
-        <v>1.22243841076245</v>
+        <v>-0.1549204264522501</v>
       </c>
       <c r="E44" t="n">
-        <v>1.494355668107425</v>
+        <v>0.02400033853214704</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>37.58412611723882</v>
+        <v>38.44558104190894</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9158738827611828</v>
+        <v>-0.05441895809105546</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8388249691240447</v>
+        <v>0.00296142299971605</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>40.60159158016594</v>
+        <v>38.8650531928586</v>
       </c>
       <c r="D46" t="n">
-        <v>1.701591580165946</v>
+        <v>-0.0349468071414023</v>
       </c>
       <c r="E46" t="n">
-        <v>2.895413905691641</v>
+        <v>0.001221279329378367</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.67953785896027</v>
+        <v>39.23220670737122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2795378589602677</v>
+        <v>-0.1677932926287795</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07814141459209054</v>
+        <v>0.02815458905120723</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>39.86188215818763</v>
+        <v>39.65413175787145</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03811784181236533</v>
+        <v>-0.2458682421285445</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001452969864432506</v>
+        <v>0.0604511924873806</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>34.30442113549677</v>
+        <v>39.70824032249832</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.795578864503234</v>
+        <v>-0.3917596775016818</v>
       </c>
       <c r="E49" t="n">
-        <v>33.5887343746766</v>
+        <v>0.1534756449162218</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>41.24439726301302</v>
+        <v>39.87678094783252</v>
       </c>
       <c r="D50" t="n">
-        <v>0.644397263013019</v>
+        <v>-0.7232190521674795</v>
       </c>
       <c r="E50" t="n">
-        <v>0.41524783257867</v>
+        <v>0.5230457974180275</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>38.42593119287589</v>
+        <v>40.15228882471894</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.474068807124112</v>
+        <v>-0.7477111752810615</v>
       </c>
       <c r="E51" t="n">
-        <v>6.121016462384528</v>
+        <v>0.5590720016401862</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-100.9302802352063</v>
+        <v>3.570425863113588</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>935.158400627679</v>
+        <v>13.97177902834835</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>18.70316801255358</v>
+        <v>0.279435580566967</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>28.45769926551294</v>
+        <v>27.82032490848616</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6923007344870626</v>
+        <v>-1.329675091513835</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4792803069713264</v>
+        <v>1.768035848992325</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>29.07298104513369</v>
+        <v>29.28318637371153</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2770189548663069</v>
+        <v>-0.06681362628847154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07673950135522098</v>
+        <v>0.004464060657815535</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>28.98648354733675</v>
+        <v>29.00570591093511</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3835164526632475</v>
+        <v>-0.3642940890648916</v>
       </c>
       <c r="E4" t="n">
-        <v>0.147084869463401</v>
+        <v>0.1327101833276192</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>28.90920431921203</v>
+        <v>28.71038135676348</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6307956807879727</v>
+        <v>-0.8296186432365218</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3979031909007619</v>
+        <v>0.6882670932056072</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>30.13803044742587</v>
+        <v>28.44399932177484</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5880304474258686</v>
+        <v>-1.106000678225158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3457798070998673</v>
+        <v>1.223237500234509</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.81685577167374</v>
+        <v>29.22256232725998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0668557716737368</v>
+        <v>-0.5274376727400245</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004469694206090827</v>
+        <v>0.2781904986254132</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.75050629839859</v>
+        <v>30.09548599497818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9105062983985874</v>
+        <v>0.2554859949781836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8290217194234976</v>
+        <v>0.06527309362999245</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>30.61713050576026</v>
+        <v>29.47642882762488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8071305057602594</v>
+        <v>-0.3335711723751231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6514596533288121</v>
+        <v>0.1112697270397141</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>30.42709721190894</v>
+        <v>30.680277994943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5070972119089348</v>
+        <v>0.7602779949429959</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2571475823258151</v>
+        <v>0.5780226295945421</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>29.69666364499381</v>
+        <v>30.08983849801517</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2833363550061918</v>
+        <v>0.109838498015165</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08027949006819475</v>
+        <v>0.0120644956462274</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>29.97555144361638</v>
+        <v>30.0804113654337</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06444855638362412</v>
+        <v>0.04041136543370527</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004153616419933177</v>
+        <v>0.001633078456216469</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>29.44071962030593</v>
+        <v>29.95985272288711</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7692803796940737</v>
+        <v>-0.2501472771128945</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5917923025822582</v>
+        <v>0.06257366024699525</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>29.86526551103273</v>
+        <v>29.73545450686738</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3547344889672672</v>
+        <v>-0.4845454931326145</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1258365576628682</v>
+        <v>0.2347843349151286</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>29.62894127289632</v>
+        <v>30.37821449262295</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7510587271036755</v>
+        <v>-0.001785507377050521</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5640892115585933</v>
+        <v>3.188036593501833e-06</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>30.36104736073625</v>
+        <v>30.54320638908418</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07895263926375407</v>
+        <v>0.1032063890841819</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00623351924671248</v>
+        <v>0.01065155874779554</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.39606725906519</v>
+        <v>30.56629890651797</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0839327409348094</v>
+        <v>0.08629890651796757</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00704470500082983</v>
+        <v>0.007447501266196905</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>30.69627960163829</v>
+        <v>31.37525106180708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006279601638286891</v>
+        <v>0.6852510618070795</v>
       </c>
       <c r="E18" t="n">
-        <v>3.943339673557541e-05</v>
+        <v>0.4695690177077299</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.25991957428342</v>
+        <v>30.89061187403108</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4900804257165845</v>
+        <v>0.1406118740310838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2401788236705487</v>
+        <v>0.01977169911853337</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71466799285631</v>
+        <v>31.83861355681801</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2253320071436882</v>
+        <v>0.8986135568180096</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05077451344340314</v>
+        <v>0.8075063244971141</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>31.03730775975343</v>
+        <v>30.88580861726953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08730775975342908</v>
+        <v>-0.06419138273046698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007622644913162491</v>
+        <v>0.004120533616849295</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.70770545872092</v>
+        <v>31.7919526936309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6877054587209166</v>
+        <v>0.7719526936308974</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4729387979545463</v>
+        <v>0.5959109612039981</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>32.13337620006495</v>
+        <v>31.99901322385107</v>
       </c>
       <c r="D23" t="n">
-        <v>1.01337620006495</v>
+        <v>0.8790132238510644</v>
       </c>
       <c r="E23" t="n">
-        <v>1.026931322858079</v>
+        <v>0.7726642477050415</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.29976812191642</v>
+        <v>32.58663422909679</v>
       </c>
       <c r="D24" t="n">
-        <v>1.019768121916421</v>
+        <v>1.306634229096794</v>
       </c>
       <c r="E24" t="n">
-        <v>1.039927022476944</v>
+        <v>1.707293008647373</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>32.13093560450127</v>
+        <v>31.99138543685247</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7509356045012758</v>
+        <v>0.6113854368524692</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5639042821076966</v>
+        <v>0.3737921523952846</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>32.54529895307395</v>
+        <v>32.43089861652436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9652989530739546</v>
+        <v>0.8508986165243613</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9318020688056728</v>
+        <v>0.7240284556030721</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>32.33996152515173</v>
+        <v>31.90531148879703</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6899615251517304</v>
+        <v>0.2553114887970267</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4760469061897019</v>
+        <v>0.06518395631175429</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.99971959255687</v>
+        <v>32.90829830425423</v>
       </c>
       <c r="D28" t="n">
-        <v>1.119719592556873</v>
+        <v>1.028298304254232</v>
       </c>
       <c r="E28" t="n">
-        <v>1.253771965955729</v>
+        <v>1.057397402532129</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>32.71683441576418</v>
+        <v>32.90915359681569</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4368344157641815</v>
+        <v>0.6291535968156907</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1908243067960338</v>
+        <v>0.3958342483861207</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.81211361359365</v>
+        <v>32.40525259128498</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3621136135936425</v>
+        <v>-0.04474740871502547</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1311262691498458</v>
+        <v>0.002002330586709537</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00473111840309</v>
+        <v>33.92527120739143</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1547311184030917</v>
+        <v>1.075271207391424</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02394171900227159</v>
+        <v>1.156208169445011</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>33.10571218941026</v>
+        <v>32.69907304263058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2057121894102636</v>
+        <v>-0.2009269573694183</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04231750487196417</v>
+        <v>0.04037164219773206</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0779625320107</v>
+        <v>32.91411211806948</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02203746798929984</v>
+        <v>-0.1858878819305261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0004856499953794152</v>
+        <v>0.0345543046486172</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.06090076721547</v>
+        <v>33.5396928583843</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6609007672154732</v>
+        <v>0.1396928583843007</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4367898241060011</v>
+        <v>0.01951409468357629</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.89679463998552</v>
+        <v>33.85946444839671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1967946399855123</v>
+        <v>0.1594644483967045</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03872813032702738</v>
+        <v>0.02542891030246523</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>33.98758366440517</v>
+        <v>34.55092894464192</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1124163355948298</v>
+        <v>0.4509289446419231</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01263743250856939</v>
+        <v>0.2033369131158786</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>34.27937838195894</v>
+        <v>34.44573863409703</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1206216180410564</v>
+        <v>0.04573863409703449</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01454957473884251</v>
+        <v>0.002092022649062406</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>34.74813211395009</v>
+        <v>35.12841259634422</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1518678860499065</v>
+        <v>0.2284125963442207</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0230638548132674</v>
+        <v>0.05217231416870792</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.88951697187024</v>
+        <v>35.11275519830228</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5895169718702462</v>
+        <v>-0.187244801697716</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3475302601230646</v>
+        <v>0.03506061576281697</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26926468172613</v>
+        <v>35.507262394196</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5692646817261249</v>
+        <v>-0.1927376058040053</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3240622778607463</v>
+        <v>0.03714778469106016</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>36.20843056628006</v>
+        <v>35.75154825222906</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09156943371993265</v>
+        <v>-0.5484517477709403</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008384961191789138</v>
+        <v>0.3007993196329991</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.69659092684201</v>
+        <v>36.15734149437066</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1034090731579838</v>
+        <v>-0.6426585056293419</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01069343641139324</v>
+        <v>0.4130099548577389</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>36.68193200156335</v>
+        <v>36.83780455716139</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.6180679984366506</v>
+        <v>-0.4621954428386061</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3820080506914875</v>
+        <v>0.2136246273807752</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>37.74507957354775</v>
+        <v>38.4470830984661</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1549204264522501</v>
+        <v>0.5470830984661035</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02400033853214704</v>
+        <v>0.2992999166272723</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.44558104190894</v>
+        <v>38.71444306322609</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05441895809105546</v>
+        <v>0.2144430632260921</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00296142299971605</v>
+        <v>0.04598582736578972</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>38.8650531928586</v>
+        <v>38.92065921215465</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0349468071414023</v>
+        <v>0.02065921215465494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001221279329378367</v>
+        <v>0.0004268030468510423</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.23220670737122</v>
+        <v>39.69124988482131</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1677932926287795</v>
+        <v>0.2912498848213119</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02815458905120723</v>
+        <v>0.08482649540842743</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>39.65413175787145</v>
+        <v>40.45294454991505</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2458682421285445</v>
+        <v>0.552944549915054</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0604511924873806</v>
+        <v>0.3057476752807617</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>39.70824032249832</v>
+        <v>38.67116111609547</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3917596775016818</v>
+        <v>-1.428838883904533</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1534756449162218</v>
+        <v>2.04158055615755</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>39.87678094783252</v>
+        <v>40.01416341001176</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7232190521674795</v>
+        <v>-0.5858365899882401</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5230457974180275</v>
+        <v>0.3432045101690493</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>40.15228882471894</v>
+        <v>39.64829065710045</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7477111752810615</v>
+        <v>-1.251709342899545</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5590720016401862</v>
+        <v>1.566776279102011</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>3.570425863113588</v>
+        <v>2.049215926944782</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>13.97177902834835</v>
+        <v>19.39487152762855</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.279435580566967</v>
+        <v>0.387897430552571</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>27.82032490848616</v>
+        <v>27.25849496040586</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.329675091513835</v>
+        <v>-1.891505039594136</v>
       </c>
       <c r="E2" t="n">
-        <v>1.768035848992325</v>
+        <v>3.577791314810015</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>29.28318637371153</v>
+        <v>28.5037923113614</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06681362628847154</v>
+        <v>-0.8462076886386001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004464060657815535</v>
+        <v>0.7160674523110819</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>29.00570591093511</v>
+        <v>28.50186897063541</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3642940890648916</v>
+        <v>-0.8681310293645872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1327101833276192</v>
+        <v>0.7536514841456178</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>28.71038135676348</v>
+        <v>28.99085788106804</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8296186432365218</v>
+        <v>-0.549142118931961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6882670932056072</v>
+        <v>0.301557066785084</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>28.44399932177484</v>
+        <v>27.93137374111852</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.106000678225158</v>
+        <v>-1.618626258881481</v>
       </c>
       <c r="E6" t="n">
-        <v>1.223237500234509</v>
+        <v>2.619950965940658</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.22256232725998</v>
+        <v>29.39565371186917</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5274376727400245</v>
+        <v>-0.3543462881308344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2781904986254132</v>
+        <v>0.1255612919121003</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.09548599497818</v>
+        <v>30.06482071226973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2554859949781836</v>
+        <v>0.2248207122697288</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06527309362999245</v>
+        <v>0.05054435266546817</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>29.47642882762488</v>
+        <v>30.22850901187094</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3335711723751231</v>
+        <v>0.4185090118709418</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1112697270397141</v>
+        <v>0.1751497930171921</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>30.680277994943</v>
+        <v>31.48384962753845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7602779949429959</v>
+        <v>1.563849627538453</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5780226295945421</v>
+        <v>2.445625657552157</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>30.08983849801517</v>
+        <v>30.6141734594523</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109838498015165</v>
+        <v>0.6341734594523025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0120644956462274</v>
+        <v>0.4021759766737012</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0804113654337</v>
+        <v>30.10980601084858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04041136543370527</v>
+        <v>0.06980601084858051</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001633078456216469</v>
+        <v>0.00487287915059214</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>29.95985272288711</v>
+        <v>29.6813375219412</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2501472771128945</v>
+        <v>-0.5286624780587985</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06257366024699525</v>
+        <v>0.2794840157072696</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>29.73545450686738</v>
+        <v>29.00470212896757</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4845454931326145</v>
+        <v>-1.215297871032426</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2347843349151286</v>
+        <v>1.476948915335948</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>30.37821449262295</v>
+        <v>29.84049909550679</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001785507377050521</v>
+        <v>-0.539500904493206</v>
       </c>
       <c r="E15" t="n">
-        <v>3.188036593501833e-06</v>
+        <v>0.2910612259489874</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>30.54320638908418</v>
+        <v>29.69085436323077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032063890841819</v>
+        <v>-0.7491456367692315</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01065155874779554</v>
+        <v>0.5612191850903774</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.56629890651797</v>
+        <v>30.26061497254442</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08629890651796757</v>
+        <v>-0.2193850274555764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007447501266196905</v>
+        <v>0.04812979027168402</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>31.37525106180708</v>
+        <v>31.67820008150224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6852510618070795</v>
+        <v>0.9882000815022387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4695690177077299</v>
+        <v>0.9765394010810312</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.89061187403108</v>
+        <v>30.61547661089649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1406118740310838</v>
+        <v>-0.1345233891035065</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01977169911853337</v>
+        <v>0.0180965422158934</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>31.83861355681801</v>
+        <v>31.9059047052851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8986135568180096</v>
+        <v>0.9659047052851015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8075063244971141</v>
+        <v>0.9329718996918989</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>30.88580861726953</v>
+        <v>31.18977423170031</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06419138273046698</v>
+        <v>0.2397742317003129</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004120533616849295</v>
+        <v>0.05749168218747532</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.7919526936309</v>
+        <v>31.43449819186337</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7719526936308974</v>
+        <v>0.4144981918633697</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5959109612039981</v>
+        <v>0.1718087510580028</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>31.99901322385107</v>
+        <v>31.72828069854439</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8790132238510644</v>
+        <v>0.6082806985443874</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7726642477050415</v>
+        <v>0.3700054082216478</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.58663422909679</v>
+        <v>32.59423721060845</v>
       </c>
       <c r="D24" t="n">
-        <v>1.306634229096794</v>
+        <v>1.314237210608447</v>
       </c>
       <c r="E24" t="n">
-        <v>1.707293008647373</v>
+        <v>1.72721944574787</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>31.99138543685247</v>
+        <v>32.41373115341429</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6113854368524692</v>
+        <v>1.033731153414291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3737921523952846</v>
+        <v>1.06860009753924</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>32.43089861652436</v>
+        <v>33.03042367214232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8508986165243613</v>
+        <v>1.450423672142321</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7240284556030721</v>
+        <v>2.103728828710815</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>31.90531148879703</v>
+        <v>31.64070045362681</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2553114887970267</v>
+        <v>-0.009299546373192413</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06518395631175429</v>
+        <v>8.648156274715617e-05</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.90829830425423</v>
+        <v>32.52739964865921</v>
       </c>
       <c r="D28" t="n">
-        <v>1.028298304254232</v>
+        <v>0.6473996486592135</v>
       </c>
       <c r="E28" t="n">
-        <v>1.057397402532129</v>
+        <v>0.4191263050840731</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90915359681569</v>
+        <v>33.17264062535241</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6291535968156907</v>
+        <v>0.8926406253524064</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3958342483861207</v>
+        <v>0.7968072860295352</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.40525259128498</v>
+        <v>32.38535926797626</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04474740871502547</v>
+        <v>-0.0646407320237472</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002002330586709537</v>
+        <v>0.004178424236565897</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>33.92527120739143</v>
+        <v>33.59345121319658</v>
       </c>
       <c r="D31" t="n">
-        <v>1.075271207391424</v>
+        <v>0.7434512131965789</v>
       </c>
       <c r="E31" t="n">
-        <v>1.156208169445011</v>
+        <v>0.552719706403465</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>32.69907304263058</v>
+        <v>32.98685030972286</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2009269573694183</v>
+        <v>0.08685030972286256</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04037164219773206</v>
+        <v>0.007542976298957155</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>32.91411211806948</v>
+        <v>32.71831100456779</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1858878819305261</v>
+        <v>-0.3816889954322065</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0345543046486172</v>
+        <v>0.1456864892340469</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>33.5396928583843</v>
+        <v>32.76756060293356</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1396928583843007</v>
+        <v>-0.6324393970664346</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01951409468357629</v>
+        <v>0.3999795909617553</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.85946444839671</v>
+        <v>33.34564664080791</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1594644483967045</v>
+        <v>-0.3543533591920891</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02542891030246523</v>
+        <v>0.1255663031707177</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>34.55092894464192</v>
+        <v>34.13418828223207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4509289446419231</v>
+        <v>0.03418828223207271</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2033369131158786</v>
+        <v>0.001168838641979859</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>34.44573863409703</v>
+        <v>34.25956747094039</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04573863409703449</v>
+        <v>-0.1404325290596091</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002092022649062406</v>
+        <v>0.01972129521807796</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>35.12841259634422</v>
+        <v>34.92077387928386</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2284125963442207</v>
+        <v>0.02077387928386543</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05217231416870792</v>
+        <v>0.0004315540605006131</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.11275519830228</v>
+        <v>34.66469304969556</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.187244801697716</v>
+        <v>-0.6353069503044324</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03506061576281697</v>
+        <v>0.4036149211051185</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>35.507262394196</v>
+        <v>35.16796239328649</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1927376058040053</v>
+        <v>-0.5320376067135086</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03714778469106016</v>
+        <v>0.2830640149574381</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>35.75154825222906</v>
+        <v>35.84356471130745</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5484517477709403</v>
+        <v>-0.4564352886925462</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3007993196329991</v>
+        <v>0.208333172763848</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.15734149437066</v>
+        <v>36.05132529387541</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.6426585056293419</v>
+        <v>-0.7486747061245893</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4130099548577389</v>
+        <v>0.5605138155907402</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>36.83780455716139</v>
+        <v>36.92141953593536</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4621954428386061</v>
+        <v>-0.3785804640646404</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2136246273807752</v>
+        <v>0.1433231677713985</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.4470830984661</v>
+        <v>38.2289692813283</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5470830984661035</v>
+        <v>0.3289692813282983</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2992999166272723</v>
+        <v>0.1082207880576571</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.71444306322609</v>
+        <v>38.47533161846088</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2144430632260921</v>
+        <v>-0.02466838153912221</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04598582736578972</v>
+        <v>0.0006085290477597054</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>38.92065921215465</v>
+        <v>38.80770555478011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02065921215465494</v>
+        <v>-0.09229444521989194</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0004268030468510423</v>
+        <v>0.008518264618447634</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.69124988482131</v>
+        <v>39.72012887553464</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2912498848213119</v>
+        <v>0.3201288755346425</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08482649540842743</v>
+        <v>0.1024824969510747</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.45294454991505</v>
+        <v>40.1174998723477</v>
       </c>
       <c r="D48" t="n">
-        <v>0.552944549915054</v>
+        <v>0.2174998723477017</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3057476752807617</v>
+        <v>0.04730619447126655</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>38.67116111609547</v>
+        <v>38.1986154725491</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.428838883904533</v>
+        <v>-1.901384527450901</v>
       </c>
       <c r="E49" t="n">
-        <v>2.04158055615755</v>
+        <v>3.615263121229686</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>40.01416341001176</v>
+        <v>40.75191518326839</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5858365899882401</v>
+        <v>0.1519151832683932</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3432045101690493</v>
+        <v>0.02307822290746948</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>39.64829065710045</v>
+        <v>39.89973901971837</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.251709342899545</v>
+        <v>-1.000260980281624</v>
       </c>
       <c r="E51" t="n">
-        <v>1.566776279102011</v>
+        <v>1.000522028673955</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>2.049215926944782</v>
+        <v>-3.49694570202637</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>19.39487152762855</v>
+        <v>30.23411741282009</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.387897430552571</v>
+        <v>0.6046823482564018</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>27.25849496040586</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.891505039594136</v>
+        <v>-29.15</v>
       </c>
       <c r="E2" t="n">
-        <v>3.577791314810015</v>
+        <v>849.7225</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>28.5037923113614</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8462076886386001</v>
+        <v>-29.35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7160674523110819</v>
+        <v>861.4225000000001</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>28.50186897063541</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8681310293645872</v>
+        <v>-29.37</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7536514841456178</v>
+        <v>862.5969</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>28.99085788106804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.549142118931961</v>
+        <v>-29.54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.301557066785084</v>
+        <v>872.6116</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>27.93137374111852</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.618626258881481</v>
+        <v>-29.55</v>
       </c>
       <c r="E6" t="n">
-        <v>2.619950965940658</v>
+        <v>873.2025</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.39565371186917</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3543462881308344</v>
+        <v>-29.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1255612919121003</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.06482071226973</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2248207122697288</v>
+        <v>-29.84</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05054435266546817</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>30.22850901187094</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4185090118709418</v>
+        <v>-29.81</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1751497930171921</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>31.48384962753845</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.563849627538453</v>
+        <v>-29.92</v>
       </c>
       <c r="E10" t="n">
-        <v>2.445625657552157</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6141734594523</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6341734594523025</v>
+        <v>-29.98</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4021759766737012</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>30.10980601084858</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06980601084858051</v>
+        <v>-30.04</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00487287915059214</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>29.6813375219412</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5286624780587985</v>
+        <v>-30.21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2794840157072696</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>29.00470212896757</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.215297871032426</v>
+        <v>-30.22</v>
       </c>
       <c r="E14" t="n">
-        <v>1.476948915335948</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>29.84049909550679</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.539500904493206</v>
+        <v>-30.38</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2910612259489874</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>29.69085436323077</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7491456367692315</v>
+        <v>-30.44</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5612191850903774</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.26061497254442</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2193850274555764</v>
+        <v>-30.48</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04812979027168402</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>31.67820008150224</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9882000815022387</v>
+        <v>-30.69</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9765394010810312</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.61547661089649</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1345233891035065</v>
+        <v>-30.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0180965422158934</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>31.9059047052851</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9659047052851015</v>
+        <v>-30.94</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9329718996918989</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>31.18977423170031</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2397742317003129</v>
+        <v>-30.95</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05749168218747532</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.43449819186337</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4144981918633697</v>
+        <v>-31.02</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1718087510580028</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>31.72828069854439</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6082806985443874</v>
+        <v>-31.12</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3700054082216478</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.59423721060845</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.314237210608447</v>
+        <v>-31.28</v>
       </c>
       <c r="E24" t="n">
-        <v>1.72721944574787</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>32.41373115341429</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.033731153414291</v>
+        <v>-31.38</v>
       </c>
       <c r="E25" t="n">
-        <v>1.06860009753924</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>33.03042367214232</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.450423672142321</v>
+        <v>-31.58</v>
       </c>
       <c r="E26" t="n">
-        <v>2.103728828710815</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>31.64070045362681</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.009299546373192413</v>
+        <v>-31.65</v>
       </c>
       <c r="E27" t="n">
-        <v>8.648156274715617e-05</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.52739964865921</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6473996486592135</v>
+        <v>-31.88</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4191263050840731</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>33.17264062535241</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8926406253524064</v>
+        <v>-32.28</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7968072860295352</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.38535926797626</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0646407320237472</v>
+        <v>-32.45</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004178424236565897</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>33.59345121319658</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7434512131965789</v>
+        <v>-32.85</v>
       </c>
       <c r="E31" t="n">
-        <v>0.552719706403465</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>32.98685030972286</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08685030972286256</v>
+        <v>-32.9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007542976298957155</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>32.71831100456779</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3816889954322065</v>
+        <v>-33.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1456864892340469</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>32.76756060293356</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.6324393970664346</v>
+        <v>-33.4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3999795909617553</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.34564664080791</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3543533591920891</v>
+        <v>-33.7</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1255663031707177</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>34.13418828223207</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03418828223207271</v>
+        <v>-34.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001168838641979859</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>34.25956747094039</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1404325290596091</v>
+        <v>-34.4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01972129521807796</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>34.92077387928386</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02077387928386543</v>
+        <v>-34.9</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0004315540605006131</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>34.66469304969556</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6353069503044324</v>
+        <v>-35.3</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4036149211051185</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>35.16796239328649</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.5320376067135086</v>
+        <v>-35.7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2830640149574381</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>35.84356471130745</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4564352886925462</v>
+        <v>-36.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.208333172763848</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.05132529387541</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.7486747061245893</v>
+        <v>-36.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5605138155907402</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>36.92141953593536</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3785804640646404</v>
+        <v>-37.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1433231677713985</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.2289692813283</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3289692813282983</v>
+        <v>-37.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1082207880576571</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.47533161846088</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02466838153912221</v>
+        <v>-38.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0006085290477597054</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>38.80770555478011</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.09229444521989194</v>
+        <v>-38.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008518264618447634</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.72012887553464</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3201288755346425</v>
+        <v>-39.4</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1024824969510747</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.1174998723477</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2174998723477017</v>
+        <v>-39.9</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04730619447126655</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>38.1986154725491</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.901384527450901</v>
+        <v>-40.1</v>
       </c>
       <c r="E49" t="n">
-        <v>3.615263121229686</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>40.75191518326839</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1519151832683932</v>
+        <v>-40.6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02307822290746948</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>39.89973901971837</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.000260980281624</v>
+        <v>-40.9</v>
       </c>
       <c r="E51" t="n">
-        <v>1.000522028673955</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-3.49694570202637</v>
+        <v>-1652.95</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>30.23411741282009</v>
+        <v>55253.15850000001</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.6046823482564018</v>
+        <v>1105.06317</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.242083668708801</v>
+        <v>29.15000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.239396095275879</v>
+        <v>29.35015678405762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002687573432922363</v>
+        <v>0.2001567840576115</v>
       </c>
       <c r="E2" t="n">
-        <v>7.223050943139242e-06</v>
+        <v>0.04006273820428533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.238811850547791</v>
+        <v>29.34999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.231247663497925</v>
+        <v>29.44254875183105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007564187049865723</v>
+        <v>0.09254875183106037</v>
       </c>
       <c r="E3" t="n">
-        <v>5.721692650695331e-05</v>
+        <v>0.0085652714654872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.238484621047974</v>
+        <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.239137649536133</v>
+        <v>29.26493644714355</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0006530284881591797</v>
+        <v>-0.1050635528564499</v>
       </c>
       <c r="E4" t="n">
-        <v>4.264462063474639e-07</v>
+        <v>0.01103835013882003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.235703587532043</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.232201457023621</v>
+        <v>29.34389305114746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003502130508422852</v>
+        <v>-0.1961069488525311</v>
       </c>
       <c r="E5" t="n">
-        <v>1.226491804118268e-05</v>
+        <v>0.03845793538824925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.23553991317749</v>
+        <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.250234484672546</v>
+        <v>29.56270408630371</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01469457149505615</v>
+        <v>0.01270408630371378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002159304276574403</v>
+        <v>0.000161393808812208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.231426239013672</v>
+        <v>29.72871208190918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0008418560028076172</v>
+        <v>-0.02128791809082031</v>
       </c>
       <c r="E7" t="n">
-        <v>7.087215294632188e-07</v>
+        <v>0.0004531754566414747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.233691573143005</v>
+        <v>29.85915184020996</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.002895712852478027</v>
+        <v>0.01915184020995753</v>
       </c>
       <c r="E8" t="n">
-        <v>8.385152796108741e-06</v>
+        <v>0.000366792983427746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.233791351318359</v>
+        <v>29.85971641540527</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002504825592041016</v>
+        <v>0.04971641540527116</v>
       </c>
       <c r="E9" t="n">
-        <v>6.274151019169949e-06</v>
+        <v>0.002471721960749484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.220276355743408</v>
+        <v>30.07175254821777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009210705757141113</v>
+        <v>0.1517525482177717</v>
       </c>
       <c r="E10" t="n">
-        <v>8.483709825668484e-05</v>
+        <v>0.02302883589058714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.225538611412048</v>
+        <v>30.03497886657715</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002966880798339844</v>
+        <v>0.05497886657714446</v>
       </c>
       <c r="E11" t="n">
-        <v>8.802381671557669e-06</v>
+        <v>0.003022675770107452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.230822563171387</v>
+        <v>30.02657127380371</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003298640251159668</v>
+        <v>-0.0134287261962811</v>
       </c>
       <c r="E12" t="n">
-        <v>1.088102726498619e-05</v>
+        <v>0.0001803306872546864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.21000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.01689720153809</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.193102798461922</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03728869077382568</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.07682609558105</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1431739044189442</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02049876690656496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.24821281433105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1317871856689408</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01736786230653987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.39970970153809</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.04029029846191179</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001623308150149932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.52187156677246</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04187156677245696</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001753228103980322</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.66771507263184</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.02228492736816179</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0004966179878042463</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.74467277526855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.005327224731445312</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.837932333932258e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.85338401794434</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.08661598205566179</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.007502328347466725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.99959373474121</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0495937347412081</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002459538525581311</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.06096458435059</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.04096458435058992</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001678097171016596</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.22157859802246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1015785980224564</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01031821157620778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.2692699432373</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.01073005676269645</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0001151341181306878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.38918876647949</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.009188766479496735</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.443342941472282e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31.50121116638184</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.07878883361816236</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.006207680302910471</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.66052055358887</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0105205535888615</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0001106820478161067</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.03134536743164</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1513453674316452</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02290542024301968</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32.32796859741211</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.04796859741210824</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002300986337684917</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32.2535285949707</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.1964714050292997</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.03860101299418714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32.78390121459961</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.06609878540038494</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.004369049431406142</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.87960433959961</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.02039566040039631</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0004159829631682942</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.11483383178711</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01483383178711506</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0002200425654884251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.43741226196289</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.03741226196288494</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001399677345179527</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.75678634643555</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05678634643554403</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.003224689141497625</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.1914176940918</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.09141769409180256</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.008357194793062392</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34.61347579956055</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2134757995605412</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.04557191699801236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>34.99890518188477</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.09890518188475994</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.009782235003657446</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35.33201217651367</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03201217651367472</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001024779445142667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>35.74772262573242</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.04772262573241903</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.002277449006796543</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36.30313491821289</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.003134918212893467</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.82771220153117e-06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>36.53409194946289</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.2659080505371065</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.07070709134044441</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>37.28757858276367</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.01242141723632528</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001542916061588788</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.14484024047852</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2448402404785099</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.05994674335757458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.26828384399414</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.2317161560058594</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.05369237695413176</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>38.78937149047852</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1106285095214901</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01223866711894642</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.44771194458008</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.04771194458007244</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.002276429655611904</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>39.91374588012695</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01374588012694744</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0001889492204644086</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40.02402877807617</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.07597122192382244</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.00577162656059868</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>40.70553207397461</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1055320739746151</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01113701863738363</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.224742889404297</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.226987600326538</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.002244710922241211</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.038727067585569e-06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.03923416137695</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1392341613769474</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01938615169434184</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0004818439483642578</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0004179890383966267</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.1532066345214673</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.6113017909513319</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>3.483242107904516e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.01222603581902664</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_2.xlsx
+++ b/full/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.02381252314289</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.15</v>
+        <v>-0.1261874768571047</v>
       </c>
       <c r="E2" t="n">
-        <v>849.7225</v>
+        <v>0.01592327931556235</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.75368709650346</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.35</v>
+        <v>-0.5963129034965462</v>
       </c>
       <c r="E3" t="n">
-        <v>861.4225000000001</v>
+        <v>0.3555890788764812</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28.83047841649158</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.37</v>
+        <v>-0.5395215835084208</v>
       </c>
       <c r="E4" t="n">
-        <v>862.5969</v>
+        <v>0.2910835390714339</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.05125791563309</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.54</v>
+        <v>-0.4887420843669119</v>
       </c>
       <c r="E5" t="n">
-        <v>872.6116</v>
+        <v>0.2388688250313137</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.5158752386351</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.55</v>
+        <v>-0.03412476136489673</v>
       </c>
       <c r="E6" t="n">
-        <v>873.2025</v>
+        <v>0.001164499338211148</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>29.74304293528138</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.75</v>
+        <v>-0.006957064718619677</v>
       </c>
       <c r="E7" t="n">
-        <v>885.0625</v>
+        <v>4.840074949906268e-05</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>29.58077201361602</v>
       </c>
       <c r="D8" t="n">
-        <v>-29.84</v>
+        <v>-0.2592279863839799</v>
       </c>
       <c r="E8" t="n">
-        <v>890.4256</v>
+        <v>0.06719914892469288</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>29.68211377194293</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.81</v>
+        <v>-0.1278862280570685</v>
       </c>
       <c r="E9" t="n">
-        <v>888.6360999999999</v>
+        <v>0.01635488732666454</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>29.54752795107213</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.92</v>
+        <v>-0.3724720489278681</v>
       </c>
       <c r="E10" t="n">
-        <v>895.2064000000001</v>
+        <v>0.1387354272325242</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>29.75683841497857</v>
       </c>
       <c r="D11" t="n">
-        <v>-29.98</v>
+        <v>-0.2231615850214261</v>
       </c>
       <c r="E11" t="n">
-        <v>898.8004000000001</v>
+        <v>0.0498010930292752</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29.73810743862573</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.04</v>
+        <v>-0.3018925613742667</v>
       </c>
       <c r="E12" t="n">
-        <v>902.4015999999999</v>
+        <v>0.09113911861311537</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.76147510426867</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.21</v>
+        <v>-0.4485248957313317</v>
       </c>
       <c r="E13" t="n">
-        <v>912.6441000000001</v>
+        <v>0.201174582090802</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>29.9606812511153</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.22</v>
+        <v>-0.2593187488846951</v>
       </c>
       <c r="E14" t="n">
-        <v>913.2483999999999</v>
+        <v>0.06724621352312354</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>29.87607033507794</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.38</v>
+        <v>-0.5039296649220582</v>
       </c>
       <c r="E15" t="n">
-        <v>922.9444</v>
+        <v>0.2539451071884578</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29.93461129704251</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.44</v>
+        <v>-0.5053887029574931</v>
       </c>
       <c r="E16" t="n">
-        <v>926.5936</v>
+        <v>0.2554177410770572</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>30.32728585566579</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.48</v>
+        <v>-0.1527141443342082</v>
       </c>
       <c r="E17" t="n">
-        <v>929.0304</v>
+        <v>0.02332160987972936</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30.28804325780069</v>
       </c>
       <c r="D18" t="n">
-        <v>-30.69</v>
+        <v>-0.4019567421993067</v>
       </c>
       <c r="E18" t="n">
-        <v>941.8761000000001</v>
+        <v>0.1615692225994799</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.35097886077029</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.75</v>
+        <v>0.6009788607702902</v>
       </c>
       <c r="E19" t="n">
-        <v>945.5625</v>
+        <v>0.3611755910927558</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.49617511377952</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.94</v>
+        <v>0.5561751137795206</v>
       </c>
       <c r="E20" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3093307571876626</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.79926696385362</v>
       </c>
       <c r="D21" t="n">
-        <v>-30.95</v>
+        <v>0.8492669638536192</v>
       </c>
       <c r="E21" t="n">
-        <v>957.9024999999999</v>
+        <v>0.7212543758931446</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.36317758864411</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.02</v>
+        <v>0.3431775886441137</v>
       </c>
       <c r="E22" t="n">
-        <v>962.2404</v>
+        <v>0.1177708573475885</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.1702265847368</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.12</v>
+        <v>0.05022658473680153</v>
       </c>
       <c r="E23" t="n">
-        <v>968.4544000000001</v>
+        <v>0.002522709814323104</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>31.46856948383135</v>
       </c>
       <c r="D24" t="n">
-        <v>-31.28</v>
+        <v>0.1885694838313441</v>
       </c>
       <c r="E24" t="n">
-        <v>978.4384000000001</v>
+        <v>0.03555845023241954</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.44570478500628</v>
       </c>
       <c r="D25" t="n">
-        <v>-31.38</v>
+        <v>0.06570478500628596</v>
       </c>
       <c r="E25" t="n">
-        <v>984.7044</v>
+        <v>0.00431711877272226</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31.15478729408748</v>
       </c>
       <c r="D26" t="n">
-        <v>-31.58</v>
+        <v>-0.4252127059125144</v>
       </c>
       <c r="E26" t="n">
-        <v>997.2963999999999</v>
+        <v>0.1808058452694424</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>31.58687360071157</v>
       </c>
       <c r="D27" t="n">
-        <v>-31.65</v>
+        <v>-0.06312639928842856</v>
       </c>
       <c r="E27" t="n">
-        <v>1001.7225</v>
+        <v>0.003984942287122113</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.54552549821508</v>
       </c>
       <c r="D28" t="n">
-        <v>-31.88</v>
+        <v>-0.3344745017849213</v>
       </c>
       <c r="E28" t="n">
-        <v>1016.3344</v>
+        <v>0.1118731923442713</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>31.93445834616257</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.28</v>
+        <v>-0.3455416538374294</v>
       </c>
       <c r="E29" t="n">
-        <v>1041.9984</v>
+        <v>0.1193990345367059</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>32.3731268104054</v>
       </c>
       <c r="D30" t="n">
-        <v>-32.45</v>
+        <v>-0.07687318959460754</v>
       </c>
       <c r="E30" t="n">
-        <v>1053.0025</v>
+        <v>0.005909487278448477</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.32158228747896</v>
       </c>
       <c r="D31" t="n">
-        <v>-32.85</v>
+        <v>0.4715822874789595</v>
       </c>
       <c r="E31" t="n">
-        <v>1079.1225</v>
+        <v>0.222389853863888</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>33.54253931907255</v>
       </c>
       <c r="D32" t="n">
-        <v>-32.9</v>
+        <v>0.6425393190725472</v>
       </c>
       <c r="E32" t="n">
-        <v>1082.41</v>
+        <v>0.4128567765542127</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.09321692438535</v>
       </c>
       <c r="D33" t="n">
-        <v>-33.1</v>
+        <v>0.9932169243853508</v>
       </c>
       <c r="E33" t="n">
-        <v>1095.61</v>
+        <v>0.9864798588854957</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.39833273060193</v>
       </c>
       <c r="D34" t="n">
-        <v>-33.4</v>
+        <v>-0.001667269398069493</v>
       </c>
       <c r="E34" t="n">
-        <v>1115.56</v>
+        <v>2.77978724573901e-06</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.39789626642995</v>
       </c>
       <c r="D35" t="n">
-        <v>-33.7</v>
+        <v>0.6978962664299502</v>
       </c>
       <c r="E35" t="n">
-        <v>1135.69</v>
+        <v>0.487059198696864</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>35.00093290383575</v>
       </c>
       <c r="D36" t="n">
-        <v>-34.1</v>
+        <v>0.900932903835745</v>
       </c>
       <c r="E36" t="n">
-        <v>1162.81</v>
+        <v>0.8116800972139077</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.30233051941863</v>
       </c>
       <c r="D37" t="n">
-        <v>-34.4</v>
+        <v>0.9023305194186335</v>
       </c>
       <c r="E37" t="n">
-        <v>1183.36</v>
+        <v>0.8142003662743009</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>34.95301991141709</v>
       </c>
       <c r="D38" t="n">
-        <v>-34.9</v>
+        <v>0.05301991141708839</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.01</v>
+        <v>0.0028111110066759</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>34.72306620000119</v>
       </c>
       <c r="D39" t="n">
-        <v>-35.3</v>
+        <v>-0.5769337999988053</v>
       </c>
       <c r="E39" t="n">
-        <v>1246.09</v>
+        <v>0.3328526095810615</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35.16858681465516</v>
       </c>
       <c r="D40" t="n">
-        <v>-35.7</v>
+        <v>-0.5314131853448387</v>
       </c>
       <c r="E40" t="n">
-        <v>1274.49</v>
+        <v>0.2823999735583479</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>35.61014068077346</v>
       </c>
       <c r="D41" t="n">
-        <v>-36.3</v>
+        <v>-0.6898593192265352</v>
       </c>
       <c r="E41" t="n">
-        <v>1317.69</v>
+        <v>0.4759058803236986</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.68210540268343</v>
       </c>
       <c r="D42" t="n">
-        <v>-36.8</v>
+        <v>-1.117894597316571</v>
       </c>
       <c r="E42" t="n">
-        <v>1354.24</v>
+        <v>1.249688330709579</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>36.89876293834338</v>
       </c>
       <c r="D43" t="n">
-        <v>-37.3</v>
+        <v>-0.4012370616566159</v>
       </c>
       <c r="E43" t="n">
-        <v>1391.29</v>
+        <v>0.160991179646835</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>37.87543651653033</v>
       </c>
       <c r="D44" t="n">
-        <v>-37.9</v>
+        <v>-0.02456348346967019</v>
       </c>
       <c r="E44" t="n">
-        <v>1436.41</v>
+        <v>0.0006033647201647606</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>38.58766495887683</v>
       </c>
       <c r="D45" t="n">
-        <v>-38.5</v>
+        <v>0.08766495887682879</v>
       </c>
       <c r="E45" t="n">
-        <v>1482.25</v>
+        <v>0.007685145014876083</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.10540492532465</v>
       </c>
       <c r="D46" t="n">
-        <v>-38.9</v>
+        <v>0.2054049253246504</v>
       </c>
       <c r="E46" t="n">
-        <v>1513.21</v>
+        <v>0.0421911833476252</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>40.05100399181302</v>
       </c>
       <c r="D47" t="n">
-        <v>-39.4</v>
+        <v>0.6510039918130204</v>
       </c>
       <c r="E47" t="n">
-        <v>1552.36</v>
+        <v>0.4238061973564871</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>40.56251715606416</v>
       </c>
       <c r="D48" t="n">
-        <v>-39.9</v>
+        <v>0.6625171560641618</v>
       </c>
       <c r="E48" t="n">
-        <v>1592.01</v>
+        <v>0.438928982079345</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>38.33997861283432</v>
       </c>
       <c r="D49" t="n">
-        <v>-40.1</v>
+        <v>-1.760021387165686</v>
       </c>
       <c r="E49" t="n">
-        <v>1608.01</v>
+        <v>3.097675283280626</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>40.43296999164407</v>
       </c>
       <c r="D50" t="n">
-        <v>-40.6</v>
+        <v>-0.1670300083559297</v>
       </c>
       <c r="E50" t="n">
-        <v>1648.36</v>
+        <v>0.02789902369138196</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>40.02033061713695</v>
       </c>
       <c r="D51" t="n">
-        <v>-40.9</v>
+        <v>-0.8796693828630495</v>
       </c>
       <c r="E51" t="n">
-        <v>1672.81</v>
+        <v>0.7738182231466584</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1652.95</v>
+        <v>-3.821628583580964</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>55253.15850000001</v>
+        <v>15.25440955466331</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1105.06317</v>
+        <v>0.3050881910932662</v>
       </c>
     </row>
   </sheetData>
